--- a/DIC/Lab2/Task5/N=3/task5_N3.xlsx
+++ b/DIC/Lab2/Task5/N=3/task5_N3.xlsx
@@ -497,34 +497,34 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.104e-11</v>
+        <v>1.126e-11</v>
       </c>
       <c r="B2" t="n">
-        <v>9.954000000000001e-12</v>
+        <v>1.014e-11</v>
       </c>
       <c r="C2" t="n">
-        <v>1.05e-11</v>
+        <v>1.07e-11</v>
       </c>
       <c r="D2" t="n">
-        <v>1.022e-11</v>
+        <v>1.025e-11</v>
       </c>
       <c r="E2" t="n">
-        <v>9.592999999999999e-12</v>
+        <v>9.717e-12</v>
       </c>
       <c r="F2" t="n">
-        <v>9.908e-12</v>
+        <v>9.982e-12</v>
       </c>
       <c r="G2" t="n">
-        <v>1.206e-11</v>
+        <v>1.155e-11</v>
       </c>
       <c r="H2" t="n">
-        <v>1.105e-11</v>
+        <v>1.042e-11</v>
       </c>
       <c r="I2" t="n">
-        <v>1.155e-11</v>
+        <v>1.098e-11</v>
       </c>
       <c r="J2" t="n">
-        <v>3.196e-11</v>
+        <v>3.167e-11</v>
       </c>
       <c r="K2" t="n">
         <v>25</v>
